--- a/programs/LDST bug.xlsx
+++ b/programs/LDST bug.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michal\Desktop\Issie Projects\central-processing-unit\programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74E1088E-A624-4FA1-9DEF-2A2CE326AE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A021AC-8689-4A28-B056-76C12BD623DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{58BC3A83-F4CC-4F57-BA26-7168ABB0008A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{58BC3A83-F4CC-4F57-BA26-7168ABB0008A}"/>
   </bookViews>
   <sheets>
     <sheet name="LDST bug" sheetId="1" r:id="rId1"/>
@@ -108,15 +108,9 @@
     <t>0x1</t>
   </si>
   <si>
-    <t>LDR R1, [R3, #14]</t>
-  </si>
-  <si>
     <t>0x2</t>
   </si>
   <si>
-    <t>LDR R2, [R3, #13]</t>
-  </si>
-  <si>
     <t>0x3</t>
   </si>
   <si>
@@ -148,6 +142,12 @@
   </si>
   <si>
     <t>0x6</t>
+  </si>
+  <si>
+    <t>IDS</t>
+  </si>
+  <si>
+    <t>LDA R1, [R3, #14]</t>
   </si>
 </sst>
 </file>
@@ -253,9 +253,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -272,6 +269,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2A41F2-140C-4D8C-BB00-4B321D8ECACE}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -619,10 +619,10 @@
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
@@ -635,74 +635,74 @@
       <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2" t="s">
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="2"/>
+      <c r="S2" s="12"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="2"/>
+      <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -711,22 +711,22 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
       <c r="T5" t="s">
         <v>19</v>
       </c>
@@ -741,56 +741,56 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0</v>
-      </c>
-      <c r="R6" s="9">
-        <v>1</v>
-      </c>
-      <c r="S6" s="9">
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>1</v>
+      </c>
+      <c r="S6" s="8">
         <v>0</v>
       </c>
       <c r="T6" t="str">
-        <f t="shared" ref="T6:T23" si="0">_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(D6:K6),2),BIN2HEX(_xlfn.CONCAT(L6:S6),2))</f>
+        <f t="shared" ref="T6:T8" si="0">_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(D6:K6),2),BIN2HEX(_xlfn.CONCAT(L6:S6),2))</f>
         <v>0x0E42</v>
       </c>
     </row>
@@ -799,558 +799,558 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="7">
-        <v>1</v>
-      </c>
-      <c r="P7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0</v>
-      </c>
-      <c r="R7" s="9">
-        <v>1</v>
-      </c>
-      <c r="S7" s="9">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>1</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="0"/>
-        <v>0x067B</v>
+        <v>0x7002</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>1</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1</v>
-      </c>
-      <c r="O8" s="7">
-        <v>1</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>1</v>
-      </c>
-      <c r="R8" s="9">
-        <v>1</v>
-      </c>
-      <c r="S8" s="9">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1</v>
+      </c>
+      <c r="S8" s="8">
         <v>1</v>
       </c>
       <c r="T8" t="str">
-        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(D8:K8),2),BIN2HEX(_xlfn.CONCAT(L8:S8),2))</f>
-        <v>0x0A77</v>
+        <f t="shared" si="0"/>
+        <v>0x067B</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
     </row>
     <row r="17" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
     </row>
     <row r="20" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
     </row>
     <row r="21" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
     </row>
     <row r="22" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
     </row>
     <row r="23" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
     </row>
     <row r="24" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
     </row>
     <row r="25" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
     </row>
     <row r="26" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
     </row>
     <row r="27" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
     </row>
     <row r="28" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
     </row>
     <row r="29" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
     </row>
     <row r="30" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D33" s="12"/>
+      <c r="D33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
